--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H2">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I2">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J2">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.40907733333333</v>
+        <v>8.753652666666667</v>
       </c>
       <c r="N2">
-        <v>43.227232</v>
+        <v>26.260958</v>
       </c>
       <c r="O2">
-        <v>0.3521459138460628</v>
+        <v>0.2520793895170918</v>
       </c>
       <c r="P2">
-        <v>0.3878253582448773</v>
+        <v>0.2812533920401061</v>
       </c>
       <c r="Q2">
-        <v>2263.753867589988</v>
+        <v>1227.348922593815</v>
       </c>
       <c r="R2">
-        <v>20373.78480830989</v>
+        <v>11046.14030334433</v>
       </c>
       <c r="S2">
-        <v>0.07939066348043534</v>
+        <v>0.05932494848957934</v>
       </c>
       <c r="T2">
-        <v>0.09148458528825515</v>
+        <v>0.06648241547426124</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H3">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I3">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J3">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>45.49788700000001</v>
       </c>
       <c r="O3">
-        <v>0.3706435562582379</v>
+        <v>0.4367350033185243</v>
       </c>
       <c r="P3">
-        <v>0.4081971828582489</v>
+        <v>0.4872798261741802</v>
       </c>
       <c r="Q3">
-        <v>2382.665114051768</v>
+        <v>2126.418335147755</v>
       </c>
       <c r="R3">
-        <v>21443.98602646591</v>
+        <v>19137.7650163298</v>
       </c>
       <c r="S3">
-        <v>0.08356092372252459</v>
+        <v>0.1027822291425812</v>
       </c>
       <c r="T3">
-        <v>0.09629011923980918</v>
+        <v>0.1151827525383876</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H4">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I4">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J4">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.2931905</v>
+        <v>10.806162</v>
       </c>
       <c r="N4">
-        <v>22.586381</v>
+        <v>21.612324</v>
       </c>
       <c r="O4">
-        <v>0.2759962207753789</v>
+        <v>0.311185607164384</v>
       </c>
       <c r="P4">
-        <v>0.2026401159061096</v>
+        <v>0.2314667817857137</v>
       </c>
       <c r="Q4">
-        <v>1774.229055781701</v>
+        <v>1515.131087914716</v>
       </c>
       <c r="R4">
-        <v>10645.3743346902</v>
+        <v>9090.786527488297</v>
       </c>
       <c r="S4">
-        <v>0.06222285201647536</v>
+        <v>0.07323514290911051</v>
       </c>
       <c r="T4">
-        <v>0.04780101809312069</v>
+        <v>0.05471390280325446</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>157.1060946666667</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H5">
-        <v>471.318284</v>
+        <v>1340.005157</v>
       </c>
       <c r="I5">
-        <v>0.2254482030285327</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J5">
-        <v>0.2358911900507825</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.049687</v>
+        <v>8.753652666666667</v>
       </c>
       <c r="N5">
-        <v>0.149061</v>
+        <v>26.260958</v>
       </c>
       <c r="O5">
-        <v>0.001214309120320449</v>
+        <v>0.2520793895170918</v>
       </c>
       <c r="P5">
-        <v>0.00133734299076424</v>
+        <v>0.2812533920401061</v>
       </c>
       <c r="Q5">
-        <v>7.806130525702668</v>
+        <v>3909.979905306712</v>
       </c>
       <c r="R5">
-        <v>70.255174731324</v>
+        <v>35189.81914776041</v>
       </c>
       <c r="S5">
-        <v>0.0002737638090974035</v>
+        <v>0.1889921864985226</v>
       </c>
       <c r="T5">
-        <v>0.0003154674295974491</v>
+        <v>0.2117938132957819</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I6">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J6">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.40907733333333</v>
+        <v>15.16596233333333</v>
       </c>
       <c r="N6">
-        <v>43.227232</v>
+        <v>45.49788700000001</v>
       </c>
       <c r="O6">
-        <v>0.3521459138460628</v>
+        <v>0.4367350033185243</v>
       </c>
       <c r="P6">
-        <v>0.3878253582448773</v>
+        <v>0.4872798261741802</v>
       </c>
       <c r="Q6">
-        <v>6436.079311426159</v>
+        <v>6774.155912511474</v>
       </c>
       <c r="R6">
-        <v>57924.71380283542</v>
+        <v>60967.40321260327</v>
       </c>
       <c r="S6">
-        <v>0.2257156195566453</v>
+        <v>0.3274345568502378</v>
       </c>
       <c r="T6">
-        <v>0.260099852337297</v>
+        <v>0.366939050153105</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>1340.005157</v>
       </c>
       <c r="I7">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J7">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.16596233333333</v>
+        <v>10.806162</v>
       </c>
       <c r="N7">
-        <v>45.49788700000001</v>
+        <v>21.612324</v>
       </c>
       <c r="O7">
-        <v>0.3706435562582379</v>
+        <v>0.311185607164384</v>
       </c>
       <c r="P7">
-        <v>0.4081971828582489</v>
+        <v>0.2314667817857137</v>
       </c>
       <c r="Q7">
-        <v>6774.155912511474</v>
+        <v>4826.770935792478</v>
       </c>
       <c r="R7">
-        <v>60967.40321260327</v>
+        <v>28960.62561475487</v>
       </c>
       <c r="S7">
-        <v>0.2375720877229252</v>
+        <v>0.2333060565464422</v>
       </c>
       <c r="T7">
-        <v>0.2737624673807249</v>
+        <v>0.1743027239959771</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>446.6683856666667</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H8">
-        <v>1340.005157</v>
+        <v>2.227382</v>
       </c>
       <c r="I8">
-        <v>0.6409718547957218</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J8">
-        <v>0.6706623143839581</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.2931905</v>
+        <v>8.753652666666667</v>
       </c>
       <c r="N8">
-        <v>22.586381</v>
+        <v>26.260958</v>
       </c>
       <c r="O8">
-        <v>0.2759962207753789</v>
+        <v>0.2520793895170918</v>
       </c>
       <c r="P8">
-        <v>0.2026401159061096</v>
+        <v>0.2812533920401061</v>
       </c>
       <c r="Q8">
-        <v>5044.311169661137</v>
+        <v>6.499242794661778</v>
       </c>
       <c r="R8">
-        <v>30265.86701796682</v>
+        <v>58.49318515195601</v>
       </c>
       <c r="S8">
-        <v>0.1769058095470042</v>
+        <v>0.0003141463987272194</v>
       </c>
       <c r="T8">
-        <v>0.135903089120625</v>
+        <v>0.0003520476954749401</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>446.6683856666667</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H9">
-        <v>1340.005157</v>
+        <v>2.227382</v>
       </c>
       <c r="I9">
-        <v>0.6409718547957218</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J9">
-        <v>0.6706623143839581</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.049687</v>
+        <v>15.16596233333333</v>
       </c>
       <c r="N9">
-        <v>0.149061</v>
+        <v>45.49788700000001</v>
       </c>
       <c r="O9">
-        <v>0.001214309120320449</v>
+        <v>0.4367350033185243</v>
       </c>
       <c r="P9">
-        <v>0.00133734299076424</v>
+        <v>0.4872798261741802</v>
       </c>
       <c r="Q9">
-        <v>22.19361207861967</v>
+        <v>11.26013050464822</v>
       </c>
       <c r="R9">
-        <v>199.742508707577</v>
+        <v>101.341174541834</v>
       </c>
       <c r="S9">
-        <v>0.0007783379691471595</v>
+        <v>0.000544267933818255</v>
       </c>
       <c r="T9">
-        <v>0.0008969055453111093</v>
+        <v>0.0006099330522263977</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H10">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I10">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J10">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.40907733333333</v>
+        <v>10.806162</v>
       </c>
       <c r="N10">
-        <v>43.227232</v>
+        <v>21.612324</v>
       </c>
       <c r="O10">
-        <v>0.3521459138460628</v>
+        <v>0.311185607164384</v>
       </c>
       <c r="P10">
-        <v>0.3878253582448773</v>
+        <v>0.2314667817857137</v>
       </c>
       <c r="Q10">
-        <v>6.832299365863111</v>
+        <v>8.023150242628001</v>
       </c>
       <c r="R10">
-        <v>61.490694292768</v>
+        <v>48.138901455768</v>
       </c>
       <c r="S10">
-        <v>0.0002396111995736957</v>
+        <v>0.0003878057544240686</v>
       </c>
       <c r="T10">
-        <v>0.0002761122059248558</v>
+        <v>0.0002897292954071873</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4741663333333333</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H11">
-        <v>1.422499</v>
+        <v>15.67816</v>
       </c>
       <c r="I11">
-        <v>0.0006804315772309073</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J11">
-        <v>0.0007119498507637952</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,33 +1116,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.16596233333333</v>
+        <v>8.753652666666667</v>
       </c>
       <c r="N11">
-        <v>45.49788700000001</v>
+        <v>26.260958</v>
       </c>
       <c r="O11">
-        <v>0.3706435562582379</v>
+        <v>0.2520793895170918</v>
       </c>
       <c r="P11">
-        <v>0.4081971828582489</v>
+        <v>0.2812533920401061</v>
       </c>
       <c r="Q11">
-        <v>7.191188751068111</v>
+        <v>68.62058354621335</v>
       </c>
       <c r="R11">
-        <v>64.720698759613</v>
+        <v>411.7235012772801</v>
       </c>
       <c r="S11">
-        <v>0.0002521975795752653</v>
+        <v>0.00331683395753567</v>
       </c>
       <c r="T11">
-        <v>0.0002906159234181319</v>
+        <v>0.002478003367759723</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4741663333333333</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H12">
-        <v>1.422499</v>
+        <v>15.67816</v>
       </c>
       <c r="I12">
-        <v>0.0006804315772309073</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J12">
-        <v>0.0007119498507637952</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.2931905</v>
+        <v>15.16596233333333</v>
       </c>
       <c r="N12">
-        <v>22.586381</v>
+        <v>45.49788700000001</v>
       </c>
       <c r="O12">
-        <v>0.2759962207753789</v>
+        <v>0.4367350033185243</v>
       </c>
       <c r="P12">
-        <v>0.2026401159061096</v>
+        <v>0.4872798261741802</v>
       </c>
       <c r="Q12">
-        <v>5.354850731019834</v>
+        <v>118.8871920079867</v>
       </c>
       <c r="R12">
-        <v>32.129104386119</v>
+        <v>713.3231520479202</v>
       </c>
       <c r="S12">
-        <v>0.0001877965438119608</v>
+        <v>0.005746513002218757</v>
       </c>
       <c r="T12">
-        <v>0.0001442696002781129</v>
+        <v>0.004293214177942454</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4741663333333333</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H13">
-        <v>1.422499</v>
+        <v>15.67816</v>
       </c>
       <c r="I13">
-        <v>0.0006804315772309073</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J13">
-        <v>0.0007119498507637952</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.049687</v>
+        <v>10.806162</v>
       </c>
       <c r="N13">
-        <v>0.149061</v>
+        <v>21.612324</v>
       </c>
       <c r="O13">
-        <v>0.001214309120320449</v>
+        <v>0.311185607164384</v>
       </c>
       <c r="P13">
-        <v>0.00133734299076424</v>
+        <v>0.2314667817857137</v>
       </c>
       <c r="Q13">
-        <v>0.02355990260433333</v>
+        <v>84.71036841096002</v>
       </c>
       <c r="R13">
-        <v>0.212039123439</v>
+        <v>338.8414736438401</v>
       </c>
       <c r="S13">
-        <v>8.262542699855187E-07</v>
+        <v>0.004094547320653523</v>
       </c>
       <c r="T13">
-        <v>9.52121142694608E-07</v>
+        <v>0.002039354834546184</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>92.55087450000001</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H14">
-        <v>185.101749</v>
+        <v>0.930769</v>
       </c>
       <c r="I14">
-        <v>0.1328110687813519</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J14">
-        <v>0.09264200718360258</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.40907733333333</v>
+        <v>8.753652666666667</v>
       </c>
       <c r="N14">
-        <v>43.227232</v>
+        <v>26.260958</v>
       </c>
       <c r="O14">
-        <v>0.3521459138460628</v>
+        <v>0.2520793895170918</v>
       </c>
       <c r="P14">
-        <v>0.3878253582448773</v>
+        <v>0.2812533920401061</v>
       </c>
       <c r="Q14">
-        <v>1333.572707938128</v>
+        <v>2.715876179633555</v>
       </c>
       <c r="R14">
-        <v>8001.436247628769</v>
+        <v>24.442885616702</v>
       </c>
       <c r="S14">
-        <v>0.04676887518488147</v>
+        <v>0.0001312741727269661</v>
       </c>
       <c r="T14">
-        <v>0.03592891962450517</v>
+        <v>0.000147112206828247</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>92.55087450000001</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H15">
-        <v>185.101749</v>
+        <v>0.930769</v>
       </c>
       <c r="I15">
-        <v>0.1328110687813519</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J15">
-        <v>0.09264200718360258</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,27 +1370,27 @@
         <v>45.49788700000001</v>
       </c>
       <c r="O15">
-        <v>0.3706435562582379</v>
+        <v>0.4367350033185243</v>
       </c>
       <c r="P15">
-        <v>0.4081971828582489</v>
+        <v>0.4872798261741802</v>
       </c>
       <c r="Q15">
-        <v>1403.623076584061</v>
+        <v>4.705335865011445</v>
       </c>
       <c r="R15">
-        <v>8421.738459504364</v>
+        <v>42.34802278510301</v>
       </c>
       <c r="S15">
-        <v>0.0492255668435777</v>
+        <v>0.0002274363896682667</v>
       </c>
       <c r="T15">
-        <v>0.03781620634668022</v>
+        <v>0.0002548762525187471</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>92.55087450000001</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H16">
-        <v>185.101749</v>
+        <v>0.930769</v>
       </c>
       <c r="I16">
-        <v>0.1328110687813519</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J16">
-        <v>0.09264200718360258</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.2931905</v>
+        <v>10.806162</v>
       </c>
       <c r="N16">
-        <v>22.586381</v>
+        <v>21.612324</v>
       </c>
       <c r="O16">
-        <v>0.2759962207753789</v>
+        <v>0.311185607164384</v>
       </c>
       <c r="P16">
-        <v>0.2026401159061096</v>
+        <v>0.2314667817857137</v>
       </c>
       <c r="Q16">
-        <v>1045.194656670092</v>
+        <v>3.352680199526</v>
       </c>
       <c r="R16">
-        <v>4180.77862668037</v>
+        <v>20.116081197156</v>
       </c>
       <c r="S16">
-        <v>0.03665535306079204</v>
+        <v>0.0001620546337536785</v>
       </c>
       <c r="T16">
-        <v>0.01877298707345986</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>92.55087450000001</v>
-      </c>
-      <c r="H17">
-        <v>185.101749</v>
-      </c>
-      <c r="I17">
-        <v>0.1328110687813519</v>
-      </c>
-      <c r="J17">
-        <v>0.09264200718360258</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.049687</v>
-      </c>
-      <c r="N17">
-        <v>0.149061</v>
-      </c>
-      <c r="O17">
-        <v>0.001214309120320449</v>
-      </c>
-      <c r="P17">
-        <v>0.00133734299076424</v>
-      </c>
-      <c r="Q17">
-        <v>4.5985753012815</v>
-      </c>
-      <c r="R17">
-        <v>27.591451807689</v>
-      </c>
-      <c r="S17">
-        <v>0.0001612736921007021</v>
-      </c>
-      <c r="T17">
-        <v>0.0001238941389573213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.06163166666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.184895</v>
-      </c>
-      <c r="I18">
-        <v>8.844181716268947E-05</v>
-      </c>
-      <c r="J18">
-        <v>9.253853089314783E-05</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>14.40907733333333</v>
-      </c>
-      <c r="N18">
-        <v>43.227232</v>
-      </c>
-      <c r="O18">
-        <v>0.3521459138460628</v>
-      </c>
-      <c r="P18">
-        <v>0.3878253582448773</v>
-      </c>
-      <c r="Q18">
-        <v>0.8880554511822223</v>
-      </c>
-      <c r="R18">
-        <v>7.99249906064</v>
-      </c>
-      <c r="S18">
-        <v>3.114442452696169E-05</v>
-      </c>
-      <c r="T18">
-        <v>3.58887888950897E-05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.06163166666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.184895</v>
-      </c>
-      <c r="I19">
-        <v>8.844181716268947E-05</v>
-      </c>
-      <c r="J19">
-        <v>9.253853089314783E-05</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>15.16596233333333</v>
-      </c>
-      <c r="N19">
-        <v>45.49788700000001</v>
-      </c>
-      <c r="O19">
-        <v>0.3706435562582379</v>
-      </c>
-      <c r="P19">
-        <v>0.4081971828582489</v>
-      </c>
-      <c r="Q19">
-        <v>0.9347035352072223</v>
-      </c>
-      <c r="R19">
-        <v>8.412331816865001</v>
-      </c>
-      <c r="S19">
-        <v>3.278038963512008E-05</v>
-      </c>
-      <c r="T19">
-        <v>3.777396761642398E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.06163166666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.184895</v>
-      </c>
-      <c r="I20">
-        <v>8.844181716268947E-05</v>
-      </c>
-      <c r="J20">
-        <v>9.253853089314783E-05</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>11.2931905</v>
-      </c>
-      <c r="N20">
-        <v>22.586381</v>
-      </c>
-      <c r="O20">
-        <v>0.2759962207753789</v>
-      </c>
-      <c r="P20">
-        <v>0.2026401159061096</v>
-      </c>
-      <c r="Q20">
-        <v>0.6960181524991668</v>
-      </c>
-      <c r="R20">
-        <v>4.176108914995001</v>
-      </c>
-      <c r="S20">
-        <v>2.440960729540934E-05</v>
-      </c>
-      <c r="T20">
-        <v>1.875201862596858E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.06163166666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.184895</v>
-      </c>
-      <c r="I21">
-        <v>8.844181716268947E-05</v>
-      </c>
-      <c r="J21">
-        <v>9.253853089314783E-05</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.049687</v>
-      </c>
-      <c r="N21">
-        <v>0.149061</v>
-      </c>
-      <c r="O21">
-        <v>0.001214309120320449</v>
-      </c>
-      <c r="P21">
-        <v>0.00133734299076424</v>
-      </c>
-      <c r="Q21">
-        <v>0.003062292621666667</v>
-      </c>
-      <c r="R21">
-        <v>0.027560633595</v>
-      </c>
-      <c r="S21">
-        <v>1.073957051983674E-07</v>
-      </c>
-      <c r="T21">
-        <v>1.237557556655713E-07</v>
+        <v>0.0001210708565288093</v>
       </c>
     </row>
   </sheetData>
